--- a/public/tender/tender-sample.xlsx
+++ b/public/tender/tender-sample.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="24000" windowHeight="9600"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Bid No</t>
   </si>
@@ -55,6 +71,9 @@
     <t>Tender Open</t>
   </si>
   <si>
+    <t>Category Name</t>
+  </si>
+  <si>
     <t>Some time Department publishing tender for particular Limited vendor, so in that tender only registered vendor can bid tender and get tender. so if you want to bid that type tender then first you have be the vendor of that department. don't worry we will help you to be the vendor of any government department.</t>
   </si>
   <si>
@@ -77,50 +96,222 @@
   </si>
   <si>
     <t>Dazte</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-m-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,59 +319,744 @@
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -370,23 +1246,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="55.0"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,232 +1309,244 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1234.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4">
-        <v>1200.0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>45616.0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>45646.0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>45646.0</v>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L2" s="9">
+        <v>45616</v>
+      </c>
+      <c r="M2" s="9">
+        <v>45646</v>
+      </c>
+      <c r="N2" s="9">
+        <v>45646</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1234.0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    <row r="3" customHeight="1" spans="1:26">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7">
-        <v>1200.0</v>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1200</v>
       </c>
       <c r="L3" s="10">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="M3" s="10">
-        <v>45646.0</v>
+        <v>45646</v>
       </c>
       <c r="N3" s="10">
-        <v>45646.0</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+        <v>45646</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4">
-      <c r="A4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1234.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    <row r="4" customHeight="1" spans="1:26">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="7">
-        <v>1200.0</v>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1200</v>
       </c>
       <c r="L4" s="10">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="M4" s="10">
-        <v>45646.0</v>
+        <v>45646</v>
       </c>
       <c r="N4" s="10">
-        <v>45646.0</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+        <v>45646</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1234.0</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    <row r="5" customHeight="1" spans="1:26">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7">
-        <v>1200.0</v>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1200</v>
       </c>
       <c r="L5" s="10">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="M5" s="10">
-        <v>45646.0</v>
+        <v>45646</v>
       </c>
       <c r="N5" s="10">
-        <v>45646.0</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
+        <v>45646</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>